--- a/demo/py_outputs/villages/Ikauna_Source_Map.xlsx
+++ b/demo/py_outputs/villages/Ikauna_Source_Map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L959"/>
+  <dimension ref="A1:M959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Distance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -548,6 +553,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M2" t="n">
+        <v>29.51953863083259</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -602,6 +610,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M3" t="n">
+        <v>29.68668562940178</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -656,6 +667,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M4" t="n">
+        <v>29.96452548403857</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -710,6 +724,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M5" t="n">
+        <v>29.16069170460372</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -764,6 +781,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M6" t="n">
+        <v>28.65275997688085</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -818,6 +838,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M7" t="n">
+        <v>28.27189925362786</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -872,6 +895,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M8" t="n">
+        <v>26.37166520016948</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -926,6 +952,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M9" t="n">
+        <v>25.79933545619691</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -980,6 +1009,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M10" t="n">
+        <v>22.78516727522936</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1034,6 +1066,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M11" t="n">
+        <v>24.84195077210139</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1088,6 +1123,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M12" t="n">
+        <v>27.26280256889285</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1142,6 +1180,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M13" t="n">
+        <v>29.43902859822128</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1196,6 +1237,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M14" t="n">
+        <v>27.60002734476554</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1250,6 +1294,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M15" t="n">
+        <v>28.09129505861909</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1304,6 +1351,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M16" t="n">
+        <v>27.59963349520883</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1358,6 +1408,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M17" t="n">
+        <v>24.63319963326548</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1412,6 +1465,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M18" t="n">
+        <v>22.36226684964987</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1466,6 +1522,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M19" t="n">
+        <v>22.88654553475363</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1520,6 +1579,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M20" t="n">
+        <v>20.97285027945335</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1574,6 +1636,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M21" t="n">
+        <v>21.78753998080038</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1628,6 +1693,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M22" t="n">
+        <v>25.04599029107456</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1682,6 +1750,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M23" t="n">
+        <v>24.40760466717074</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1736,6 +1807,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M24" t="n">
+        <v>22.41897406285869</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1790,6 +1864,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M25" t="n">
+        <v>22.42352529343455</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1844,6 +1921,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M26" t="n">
+        <v>20.58256308970517</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1898,6 +1978,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M27" t="n">
+        <v>27.04111648796804</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1952,6 +2035,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M28" t="n">
+        <v>25.51231999666885</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2006,6 +2092,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M29" t="n">
+        <v>22.59741183247823</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2060,6 +2149,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M30" t="n">
+        <v>24.32980266447552</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2114,6 +2206,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M31" t="n">
+        <v>26.95529734311623</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2168,6 +2263,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M32" t="n">
+        <v>26.87904913662681</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2222,6 +2320,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M33" t="n">
+        <v>25.68889105176047</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2276,6 +2377,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M34" t="n">
+        <v>24.9427870710589</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2330,6 +2434,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M35" t="n">
+        <v>23.64842688393954</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2384,6 +2491,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M36" t="n">
+        <v>21.82588656236161</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2438,6 +2548,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M37" t="n">
+        <v>20.9365042170296</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2492,6 +2605,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M38" t="n">
+        <v>22.25207754122193</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2546,6 +2662,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M39" t="n">
+        <v>20.14674343819348</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2600,6 +2719,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M40" t="n">
+        <v>19.63658220113929</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2654,6 +2776,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M41" t="n">
+        <v>18.32007982419284</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2708,6 +2833,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M42" t="n">
+        <v>17.35674211690713</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2762,6 +2890,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M43" t="n">
+        <v>17.28118265686404</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2816,6 +2947,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M44" t="n">
+        <v>15.80141535764477</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2870,6 +3004,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M45" t="n">
+        <v>13.20708646795453</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2924,6 +3061,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M46" t="n">
+        <v>15.0809862353043</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2978,6 +3118,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M47" t="n">
+        <v>17.213615938503</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3032,6 +3175,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M48" t="n">
+        <v>14.57701300269472</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3086,6 +3232,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M49" t="n">
+        <v>11.46261222743864</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3140,6 +3289,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M50" t="n">
+        <v>11.45975173599138</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3194,6 +3346,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M51" t="n">
+        <v>12.18585786424061</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3248,6 +3403,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M52" t="n">
+        <v>10.59952890729414</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3302,6 +3460,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M53" t="n">
+        <v>9.163593468479414</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3356,6 +3517,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M54" t="n">
+        <v>7.754003670193887</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3407,8 +3571,11 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>8.365418409331847</v>
       </c>
     </row>
     <row r="56">
@@ -3464,6 +3631,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M56" t="n">
+        <v>17.65683586847279</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3518,6 +3688,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M57" t="n">
+        <v>17.0832869139833</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3572,6 +3745,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M58" t="n">
+        <v>18.99231687628959</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3626,6 +3802,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M59" t="n">
+        <v>18.93278824689761</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3680,6 +3859,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M60" t="n">
+        <v>17.17821640574497</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3734,6 +3916,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M61" t="n">
+        <v>16.73096535300852</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3788,6 +3973,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M62" t="n">
+        <v>15.7172921246668</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3839,8 +4027,11 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>14.06709512613022</v>
       </c>
     </row>
     <row r="64">
@@ -3896,6 +4087,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M64" t="n">
+        <v>15.39185226565167</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3950,6 +4144,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M65" t="n">
+        <v>16.11088542349032</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4001,8 +4198,11 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>17.89549496931572</v>
       </c>
     </row>
     <row r="67">
@@ -4058,6 +4258,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M67" t="n">
+        <v>23.54147867972052</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4112,6 +4315,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M68" t="n">
+        <v>24.48110864029414</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4166,6 +4372,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M69" t="n">
+        <v>22.53373905925176</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4220,6 +4429,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M70" t="n">
+        <v>21.48130231156812</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4274,6 +4486,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M71" t="n">
+        <v>20.98365453268632</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4328,6 +4543,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M72" t="n">
+        <v>20.48954604732395</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4382,6 +4600,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M73" t="n">
+        <v>19.41858970832035</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4436,6 +4657,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M74" t="n">
+        <v>23.94847728079215</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4490,6 +4714,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M75" t="n">
+        <v>22.10532325258571</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4544,6 +4771,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M76" t="n">
+        <v>21.51017141112495</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4598,6 +4828,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M77" t="n">
+        <v>26.89658489636308</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4652,6 +4885,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M78" t="n">
+        <v>26.98836795554981</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4706,6 +4942,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M79" t="n">
+        <v>25.48326670210193</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4760,6 +4999,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M80" t="n">
+        <v>24.96051885831923</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4814,6 +5056,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M81" t="n">
+        <v>26.77740821240618</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4868,6 +5113,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M82" t="n">
+        <v>27.57075592467895</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4922,6 +5170,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M83" t="n">
+        <v>26.18703927305981</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4976,6 +5227,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M84" t="n">
+        <v>28.41309978017083</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5030,6 +5284,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M85" t="n">
+        <v>29.64099989440346</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5084,6 +5341,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M86" t="n">
+        <v>27.01883348198562</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5138,6 +5398,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M87" t="n">
+        <v>27.89242553020596</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5192,6 +5455,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M88" t="n">
+        <v>26.63118323634661</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5246,6 +5512,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M89" t="n">
+        <v>24.48695685429776</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5300,6 +5569,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M90" t="n">
+        <v>22.03028343411422</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5351,8 +5623,11 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>19.65991645254585</v>
       </c>
     </row>
     <row r="92">
@@ -5405,8 +5680,11 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>17.00141721595876</v>
       </c>
     </row>
     <row r="93">
@@ -5462,6 +5740,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M93" t="n">
+        <v>15.71074726268659</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5513,8 +5794,11 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>15.38704580911146</v>
       </c>
     </row>
     <row r="95">
@@ -5567,8 +5851,11 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>16.36198432205652</v>
       </c>
     </row>
     <row r="96">
@@ -5624,6 +5911,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M96" t="n">
+        <v>18.19494948879188</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5678,6 +5968,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M97" t="n">
+        <v>18.76798254299151</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5732,6 +6025,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M98" t="n">
+        <v>16.91262234473761</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5786,6 +6082,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M99" t="n">
+        <v>16.21183233274588</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5840,6 +6139,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M100" t="n">
+        <v>17.5398018413584</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5894,6 +6196,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M101" t="n">
+        <v>19.27052633314832</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5948,6 +6253,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M102" t="n">
+        <v>18.69600447572527</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6002,6 +6310,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M103" t="n">
+        <v>19.62696173766225</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6056,6 +6367,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M104" t="n">
+        <v>21.33068845240437</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6110,6 +6424,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M105" t="n">
+        <v>23.01509190993449</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6164,6 +6481,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M106" t="n">
+        <v>24.54409169956775</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6218,6 +6538,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M107" t="n">
+        <v>22.96409659920566</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6272,6 +6595,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M108" t="n">
+        <v>21.23604038922661</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6326,6 +6652,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M109" t="n">
+        <v>22.14719329649254</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6380,6 +6709,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M110" t="n">
+        <v>23.77216700712993</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6434,6 +6766,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M111" t="n">
+        <v>23.51183086848328</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6488,6 +6823,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M112" t="n">
+        <v>23.27708861657901</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6542,6 +6880,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M113" t="n">
+        <v>12.62741041696588</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6593,8 +6934,11 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>11.08942108414724</v>
       </c>
     </row>
     <row r="115">
@@ -6650,6 +6994,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M115" t="n">
+        <v>9.436586187693701</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6704,6 +7051,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M116" t="n">
+        <v>11.23050863334964</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6758,6 +7108,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M117" t="n">
+        <v>12.54553156127724</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6812,6 +7165,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M118" t="n">
+        <v>14.60080102302917</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6866,6 +7222,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M119" t="n">
+        <v>13.50497224686105</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6920,6 +7279,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M120" t="n">
+        <v>12.71940978678257</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6974,6 +7336,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M121" t="n">
+        <v>9.707025680239392</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7028,6 +7393,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M122" t="n">
+        <v>7.937492096056631</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7082,6 +7450,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M123" t="n">
+        <v>6.742608733741167</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7133,8 +7504,11 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>4.988009892440943</v>
       </c>
     </row>
     <row r="125">
@@ -7190,6 +7564,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M125" t="n">
+        <v>5.196494795227142</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7244,6 +7621,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M126" t="n">
+        <v>5.341785761976699</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7298,6 +7678,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M127" t="n">
+        <v>6.7334159368865</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7349,8 +7732,11 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>6.606721356799855</v>
       </c>
     </row>
     <row r="129">
@@ -7406,6 +7792,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M129" t="n">
+        <v>8.732244785098132</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7460,6 +7849,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M130" t="n">
+        <v>12.82249529889288</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7514,6 +7906,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M131" t="n">
+        <v>11.54836394627141</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7568,6 +7963,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M132" t="n">
+        <v>10.49815212335694</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7619,8 +8017,11 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>9.811276846155016</v>
       </c>
     </row>
     <row r="134">
@@ -7676,6 +8077,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M134" t="n">
+        <v>8.100194661961797</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7730,6 +8134,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M135" t="n">
+        <v>7.966937362523517</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7784,6 +8191,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M136" t="n">
+        <v>9.392273389950132</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7838,6 +8248,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M137" t="n">
+        <v>13.10336219361566</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7892,6 +8305,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M138" t="n">
+        <v>14.85408251922444</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7943,8 +8359,11 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>13.68033894830689</v>
       </c>
     </row>
     <row r="140">
@@ -8000,6 +8419,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M140" t="n">
+        <v>14.41398225236442</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8054,6 +8476,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M141" t="n">
+        <v>14.99838334192977</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8108,6 +8533,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M142" t="n">
+        <v>16.69471116480805</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8162,6 +8590,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M143" t="n">
+        <v>15.2325445536948</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8216,6 +8647,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M144" t="n">
+        <v>15.11813494877487</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8270,6 +8704,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M145" t="n">
+        <v>16.65349606237364</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8324,6 +8761,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M146" t="n">
+        <v>16.88857296032249</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8378,6 +8818,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M147" t="n">
+        <v>19.13281088856544</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8432,6 +8875,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M148" t="n">
+        <v>19.37653778025823</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8486,6 +8932,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M149" t="n">
+        <v>18.2075897409412</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8537,8 +8986,11 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>19.17004461158468</v>
       </c>
     </row>
     <row r="151">
@@ -8594,6 +9046,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M151" t="n">
+        <v>20.48504743055685</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8648,6 +9103,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M152" t="n">
+        <v>21.01761243190186</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8702,6 +9160,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M153" t="n">
+        <v>21.76562326853675</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8756,6 +9217,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M154" t="n">
+        <v>23.15109406963779</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8810,6 +9274,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M155" t="n">
+        <v>23.36239229725726</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8864,6 +9331,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M156" t="n">
+        <v>21.01664830478727</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8918,6 +9388,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M157" t="n">
+        <v>22.61672691788069</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8972,6 +9445,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M158" t="n">
+        <v>22.77242081274607</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9026,6 +9502,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M159" t="n">
+        <v>22.14785353254264</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9080,6 +9559,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M160" t="n">
+        <v>22.49427475007251</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9134,6 +9616,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M161" t="n">
+        <v>23.63719112304952</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9188,6 +9673,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M162" t="n">
+        <v>24.6990805107648</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9242,6 +9730,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M163" t="n">
+        <v>24.94521676948082</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9296,6 +9787,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M164" t="n">
+        <v>26.79748854449155</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9350,6 +9844,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M165" t="n">
+        <v>26.12265586663409</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9404,6 +9901,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M166" t="n">
+        <v>24.40372613813203</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9458,6 +9958,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M167" t="n">
+        <v>25.60586336796245</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9512,6 +10015,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M168" t="n">
+        <v>26.96970333148623</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9566,6 +10072,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M169" t="n">
+        <v>25.60083921934478</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9620,6 +10129,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M170" t="n">
+        <v>24.87678335313048</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9674,6 +10186,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M171" t="n">
+        <v>26.44725522680245</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9728,6 +10243,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M172" t="n">
+        <v>27.85655083594055</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9782,6 +10300,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M173" t="n">
+        <v>26.69888135598158</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9836,6 +10357,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M174" t="n">
+        <v>29.76690066219881</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9890,6 +10414,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M175" t="n">
+        <v>28.66429648937126</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9944,6 +10471,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M176" t="n">
+        <v>28.46370177784061</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9998,6 +10528,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M177" t="n">
+        <v>29.18412058741029</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10052,6 +10585,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M178" t="n">
+        <v>28.23598328107651</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10106,6 +10642,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M179" t="n">
+        <v>27.97921268132389</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10160,6 +10699,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M180" t="n">
+        <v>29.39938533465343</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10214,6 +10756,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M181" t="n">
+        <v>29.66862167705409</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10268,6 +10813,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M182" t="n">
+        <v>29.35104926368616</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10322,6 +10870,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M183" t="n">
+        <v>28.75337007216788</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10376,6 +10927,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M184" t="n">
+        <v>29.04161040138807</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10430,6 +10984,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M185" t="n">
+        <v>28.6000857266708</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10484,6 +11041,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M186" t="n">
+        <v>29.3847692623723</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10538,6 +11098,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M187" t="n">
+        <v>29.83269619118357</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10592,6 +11155,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M188" t="n">
+        <v>29.67336150721981</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10646,6 +11212,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M189" t="n">
+        <v>29.17110742776278</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10700,6 +11269,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M190" t="n">
+        <v>29.91613047266002</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10754,6 +11326,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M191" t="n">
+        <v>28.39997231394223</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10808,6 +11383,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M192" t="n">
+        <v>27.59941807080309</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10862,6 +11440,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M193" t="n">
+        <v>28.55109250697255</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10916,6 +11497,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M194" t="n">
+        <v>29.04584615672268</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10970,6 +11554,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M195" t="n">
+        <v>27.73125837808217</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -11024,6 +11611,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M196" t="n">
+        <v>29.24751217160765</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11078,6 +11668,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M197" t="n">
+        <v>28.43995370028971</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -11132,6 +11725,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M198" t="n">
+        <v>27.76706168245332</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -11186,6 +11782,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M199" t="n">
+        <v>28.62726465608247</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -11240,6 +11839,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M200" t="n">
+        <v>28.04128829763991</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -11294,6 +11896,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M201" t="n">
+        <v>28.87300892433545</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -11348,6 +11953,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M202" t="n">
+        <v>27.1379651614064</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -11402,6 +12010,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M203" t="n">
+        <v>26.25132355352495</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11456,6 +12067,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M204" t="n">
+        <v>26.34755678264083</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11510,6 +12124,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M205" t="n">
+        <v>25.69373844751052</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11564,6 +12181,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M206" t="n">
+        <v>24.54625506715552</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11618,6 +12238,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M207" t="n">
+        <v>25.36897391812847</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11672,6 +12295,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M208" t="n">
+        <v>22.80497127309853</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -11726,6 +12352,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M209" t="n">
+        <v>22.85633349993937</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11780,6 +12409,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M210" t="n">
+        <v>23.72688010433991</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11834,6 +12466,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M211" t="n">
+        <v>22.72062322327557</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11888,6 +12523,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M212" t="n">
+        <v>22.44491486722247</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11942,6 +12580,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M213" t="n">
+        <v>20.25602896471848</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11996,6 +12637,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M214" t="n">
+        <v>26.26822179320251</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -12050,6 +12694,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M215" t="n">
+        <v>24.46671966460319</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12104,6 +12751,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M216" t="n">
+        <v>25.01813503312014</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -12158,6 +12808,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M217" t="n">
+        <v>23.61284469238764</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -12212,6 +12865,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M218" t="n">
+        <v>24.41809348554555</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -12266,6 +12922,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M219" t="n">
+        <v>23.11359879453531</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -12320,6 +12979,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M220" t="n">
+        <v>23.38281183146367</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -12374,6 +13036,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M221" t="n">
+        <v>21.86191039890464</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -12428,6 +13093,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M222" t="n">
+        <v>21.75630369622391</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12482,6 +13150,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M223" t="n">
+        <v>18.95573859689695</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12536,6 +13207,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M224" t="n">
+        <v>16.96375181822627</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12590,6 +13264,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M225" t="n">
+        <v>15.00019651581079</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12644,6 +13321,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M226" t="n">
+        <v>16.32338178721471</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12698,6 +13378,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M227" t="n">
+        <v>13.67229566068183</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12752,6 +13435,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M228" t="n">
+        <v>13.59506092049249</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12806,6 +13492,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M229" t="n">
+        <v>22.25555146431276</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12860,6 +13549,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M230" t="n">
+        <v>21.65121053766411</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12914,6 +13606,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M231" t="n">
+        <v>21.25710909749462</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12968,6 +13663,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M232" t="n">
+        <v>20.64764628294775</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -13022,6 +13720,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M233" t="n">
+        <v>20.29461396378633</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -13076,6 +13777,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M234" t="n">
+        <v>20.91465594741769</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -13130,6 +13834,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M235" t="n">
+        <v>18.99926271693625</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -13184,6 +13891,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M236" t="n">
+        <v>18.47499489488026</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -13238,6 +13948,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M237" t="n">
+        <v>18.74428632794709</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -13292,6 +14005,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M238" t="n">
+        <v>17.65243173551641</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -13346,6 +14062,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M239" t="n">
+        <v>15.30933621639208</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -13400,6 +14119,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M240" t="n">
+        <v>15.47176664342681</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -13454,6 +14176,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M241" t="n">
+        <v>15.99910035918474</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13508,6 +14233,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M242" t="n">
+        <v>16.8346591345682</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13562,6 +14290,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M243" t="n">
+        <v>16.84370991204373</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13616,6 +14347,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M244" t="n">
+        <v>16.98341347769563</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13670,6 +14404,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M245" t="n">
+        <v>17.12608613612366</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13724,6 +14461,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M246" t="n">
+        <v>15.75167312487365</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13778,6 +14518,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M247" t="n">
+        <v>14.58970183014451</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -13832,6 +14575,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M248" t="n">
+        <v>13.78972072163876</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -13886,6 +14632,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M249" t="n">
+        <v>12.14794402493521</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -13937,8 +14686,11 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
+        <v>10.86114330248802</v>
       </c>
     </row>
     <row r="251">
@@ -13994,6 +14746,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M251" t="n">
+        <v>12.54111357191578</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -14048,6 +14803,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M252" t="n">
+        <v>12.46101817615006</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -14102,6 +14860,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M253" t="n">
+        <v>14.26145810523083</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -14156,6 +14917,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M254" t="n">
+        <v>28.73314886340863</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -14210,6 +14974,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M255" t="n">
+        <v>28.8470361099286</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -14264,6 +15031,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M256" t="n">
+        <v>29.43172114630271</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -14318,6 +15088,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M257" t="n">
+        <v>29.57037415228251</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -14372,6 +15145,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M258" t="n">
+        <v>29.72524229747202</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -14426,6 +15202,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M259" t="n">
+        <v>28.94402849297459</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -14480,6 +15259,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M260" t="n">
+        <v>28.27081816533125</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -14534,6 +15316,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M261" t="n">
+        <v>29.40883719882444</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -14588,6 +15373,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M262" t="n">
+        <v>29.3860063165534</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14642,6 +15430,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M263" t="n">
+        <v>28.85635510763574</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -14696,6 +15487,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M264" t="n">
+        <v>28.40949372470266</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -14750,6 +15544,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M265" t="n">
+        <v>25.28651624011104</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -14804,6 +15601,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M266" t="n">
+        <v>25.82342574104571</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -14858,6 +15658,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M267" t="n">
+        <v>27.19247805434574</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -14912,6 +15715,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M268" t="n">
+        <v>27.42464027216191</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -14966,6 +15772,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M269" t="n">
+        <v>24.16488778913309</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -15020,6 +15829,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M270" t="n">
+        <v>24.94492143977222</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -15074,6 +15886,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M271" t="n">
+        <v>25.46981115684926</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -15128,6 +15943,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M272" t="n">
+        <v>25.12163666673671</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -15182,6 +16000,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M273" t="n">
+        <v>23.31789289676987</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -15236,6 +16057,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M274" t="n">
+        <v>23.16239707370525</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -15290,6 +16114,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M275" t="n">
+        <v>23.60533196252941</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -15344,6 +16171,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M276" t="n">
+        <v>21.60480234219499</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -15398,6 +16228,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M277" t="n">
+        <v>18.28904278956804</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -15452,6 +16285,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M278" t="n">
+        <v>19.10633327135944</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -15506,6 +16342,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M279" t="n">
+        <v>25.47462482017896</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -15560,6 +16399,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M280" t="n">
+        <v>27.54385257342674</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -15614,6 +16456,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M281" t="n">
+        <v>29.49408070205098</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -15668,6 +16513,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M282" t="n">
+        <v>26.72908369759754</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -15722,6 +16570,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M283" t="n">
+        <v>24.44818953999514</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -15776,6 +16627,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M284" t="n">
+        <v>25.52369523028526</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -15830,6 +16684,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M285" t="n">
+        <v>24.32856477810014</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -15884,6 +16741,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M286" t="n">
+        <v>22.9627458041631</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -15938,6 +16798,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M287" t="n">
+        <v>22.02015079555321</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -15992,6 +16855,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M288" t="n">
+        <v>21.43563051379142</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -16046,6 +16912,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M289" t="n">
+        <v>18.43707966770325</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -16100,6 +16969,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M290" t="n">
+        <v>19.95195210595701</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -16154,6 +17026,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M291" t="n">
+        <v>22.65398106733237</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -16208,6 +17083,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M292" t="n">
+        <v>21.58309721277568</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -16262,6 +17140,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M293" t="n">
+        <v>20.08513323921191</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -16316,6 +17197,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M294" t="n">
+        <v>17.41701537088617</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -16370,6 +17254,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M295" t="n">
+        <v>17.48242191152649</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -16424,6 +17311,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M296" t="n">
+        <v>18.32624555280876</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -16478,6 +17368,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M297" t="n">
+        <v>18.78884227139989</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -16532,6 +17425,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M298" t="n">
+        <v>17.20720306864387</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -16586,6 +17482,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M299" t="n">
+        <v>15.91594192000985</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -16640,6 +17539,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M300" t="n">
+        <v>16.37053846741437</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -16694,6 +17596,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M301" t="n">
+        <v>14.73259988700002</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -16748,6 +17653,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M302" t="n">
+        <v>15.32455031032706</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -16802,6 +17710,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M303" t="n">
+        <v>16.59319563430027</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -16856,6 +17767,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M304" t="n">
+        <v>15.66155254372794</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -16910,6 +17824,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M305" t="n">
+        <v>14.55353711106668</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -16964,6 +17881,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M306" t="n">
+        <v>15.06542196143253</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -17018,6 +17938,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M307" t="n">
+        <v>13.38149610013382</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -17072,6 +17995,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M308" t="n">
+        <v>13.99341448424826</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -17126,6 +18052,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M309" t="n">
+        <v>13.22865913076838</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -17180,6 +18109,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M310" t="n">
+        <v>11.57800646139253</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -17234,6 +18166,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M311" t="n">
+        <v>10.41028838673383</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -17288,6 +18223,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M312" t="n">
+        <v>24.37942750703619</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -17342,6 +18280,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M313" t="n">
+        <v>29.60085047234369</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -17396,6 +18337,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M314" t="n">
+        <v>27.75135849076732</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -17450,6 +18394,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M315" t="n">
+        <v>29.05776812812596</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -17504,6 +18451,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M316" t="n">
+        <v>28.10450882163663</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -17558,6 +18508,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M317" t="n">
+        <v>26.83049910667811</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -17612,6 +18565,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M318" t="n">
+        <v>25.98196131008919</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -17666,6 +18622,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M319" t="n">
+        <v>29.37867969663397</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -17720,6 +18679,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M320" t="n">
+        <v>29.24613685092498</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -17774,6 +18736,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M321" t="n">
+        <v>28.3906637027192</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -17828,6 +18793,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M322" t="n">
+        <v>28.17867590992973</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -17882,6 +18850,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M323" t="n">
+        <v>28.54927834942707</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -17936,6 +18907,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M324" t="n">
+        <v>26.60715663675149</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -17990,6 +18964,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M325" t="n">
+        <v>26.25201123416335</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -18044,6 +19021,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M326" t="n">
+        <v>24.68073843335082</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -18098,6 +19078,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M327" t="n">
+        <v>24.42819474074489</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -18152,6 +19135,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M328" t="n">
+        <v>24.02657127671234</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -18206,6 +19192,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M329" t="n">
+        <v>22.31832715677771</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -18260,6 +19249,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M330" t="n">
+        <v>22.44842872579967</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -18314,6 +19306,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M331" t="n">
+        <v>22.39167374734702</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -18368,6 +19363,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M332" t="n">
+        <v>24.70407321029689</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -18422,6 +19420,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M333" t="n">
+        <v>25.71670663513605</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -18476,6 +19477,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M334" t="n">
+        <v>24.64713196917172</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -18530,6 +19534,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M335" t="n">
+        <v>24.14448369917683</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -18584,6 +19591,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M336" t="n">
+        <v>22.04657368076901</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -18638,6 +19648,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M337" t="n">
+        <v>20.44295214165101</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -18692,6 +19705,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M338" t="n">
+        <v>20.40664606856617</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -18746,6 +19762,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M339" t="n">
+        <v>21.029910506771</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -18800,6 +19819,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M340" t="n">
+        <v>20.3568015952447</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -18854,6 +19876,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M341" t="n">
+        <v>18.84066730371322</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -18908,6 +19933,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M342" t="n">
+        <v>19.8587647613077</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -18962,6 +19990,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M343" t="n">
+        <v>19.55248752872618</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -19016,6 +20047,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M344" t="n">
+        <v>18.75945723549735</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -19070,6 +20104,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M345" t="n">
+        <v>18.05398903457102</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -19124,6 +20161,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M346" t="n">
+        <v>17.23899443601029</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -19178,6 +20218,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M347" t="n">
+        <v>16.56356472472859</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -19232,6 +20275,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M348" t="n">
+        <v>15.33241498002811</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -19286,6 +20332,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M349" t="n">
+        <v>14.12577962411819</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -19340,6 +20389,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M350" t="n">
+        <v>16.72066738572086</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -19394,6 +20446,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M351" t="n">
+        <v>15.72430313700126</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -19448,6 +20503,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M352" t="n">
+        <v>14.56668843337048</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -19502,6 +20560,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M353" t="n">
+        <v>12.03914566247311</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -19556,6 +20617,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M354" t="n">
+        <v>19.62435901100272</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -19610,6 +20674,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M355" t="n">
+        <v>17.76479493943123</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -19664,6 +20731,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M356" t="n">
+        <v>15.46062056916566</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -19718,6 +20788,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M357" t="n">
+        <v>16.03522977452772</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -19772,6 +20845,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M358" t="n">
+        <v>17.89401061416235</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -19826,6 +20902,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M359" t="n">
+        <v>17.56788970039987</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -19880,6 +20959,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M360" t="n">
+        <v>18.21075998511093</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -19934,6 +21016,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M361" t="n">
+        <v>15.74790850326884</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -19988,6 +21073,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M362" t="n">
+        <v>14.74748539383033</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -20042,6 +21130,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M363" t="n">
+        <v>13.29975457305147</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -20096,6 +21187,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M364" t="n">
+        <v>13.86834051826215</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -20150,6 +21244,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M365" t="n">
+        <v>25.66632319010825</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -20204,6 +21301,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M366" t="n">
+        <v>24.22088456352654</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -20258,6 +21358,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M367" t="n">
+        <v>22.36705854107151</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -20312,6 +21415,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M368" t="n">
+        <v>22.50343636898257</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -20366,6 +21472,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M369" t="n">
+        <v>21.09581911953044</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -20420,6 +21529,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M370" t="n">
+        <v>19.38416003388627</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -20474,6 +21586,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M371" t="n">
+        <v>19.38509132165595</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -20528,6 +21643,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M372" t="n">
+        <v>22.01610864591096</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -20582,6 +21700,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M373" t="n">
+        <v>23.15388200733126</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -20636,6 +21757,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M374" t="n">
+        <v>24.51375558062961</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -20690,6 +21814,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M375" t="n">
+        <v>23.69281210700087</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -20744,6 +21871,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M376" t="n">
+        <v>21.82930597542296</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -20798,6 +21928,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M377" t="n">
+        <v>19.92749401361332</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -20852,6 +21985,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M378" t="n">
+        <v>29.38325978678083</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -20906,6 +22042,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M379" t="n">
+        <v>29.85563309356156</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -20960,6 +22099,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M380" t="n">
+        <v>27.47329890871123</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -21014,6 +22156,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M381" t="n">
+        <v>26.93180233516414</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -21068,6 +22213,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M382" t="n">
+        <v>26.27974676685562</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -21122,6 +22270,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M383" t="n">
+        <v>28.25856076308342</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -21176,6 +22327,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M384" t="n">
+        <v>27.35599567515659</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -21230,6 +22384,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M385" t="n">
+        <v>26.77383359924558</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -21284,6 +22441,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M386" t="n">
+        <v>28.22492687961747</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -21338,6 +22498,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M387" t="n">
+        <v>26.65734110033672</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -21392,6 +22555,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M388" t="n">
+        <v>25.55249814309057</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -21446,6 +22612,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M389" t="n">
+        <v>25.49607918178678</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -21500,6 +22669,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M390" t="n">
+        <v>25.38464406664837</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -21554,6 +22726,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M391" t="n">
+        <v>27.60614839557618</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -21608,6 +22783,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M392" t="n">
+        <v>28.73123161962529</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -21662,6 +22840,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M393" t="n">
+        <v>28.18289515769321</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -21716,6 +22897,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M394" t="n">
+        <v>27.13823983036733</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -21770,6 +22954,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M395" t="n">
+        <v>28.0384981913968</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -21824,6 +23011,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M396" t="n">
+        <v>29.40780939702683</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -21878,6 +23068,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M397" t="n">
+        <v>28.54946417207269</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -21932,6 +23125,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M398" t="n">
+        <v>28.17727079838357</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -21986,6 +23182,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M399" t="n">
+        <v>26.42217918352779</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -22040,6 +23239,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M400" t="n">
+        <v>25.13824595253127</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -22094,6 +23296,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M401" t="n">
+        <v>23.4784542392619</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -22148,6 +23353,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M402" t="n">
+        <v>22.77160030380803</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -22202,6 +23410,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M403" t="n">
+        <v>21.43441551168853</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -22256,6 +23467,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M404" t="n">
+        <v>19.61024913781231</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -22310,6 +23524,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M405" t="n">
+        <v>18.88435648301265</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -22364,6 +23581,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M406" t="n">
+        <v>17.61771129657539</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -22418,6 +23638,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M407" t="n">
+        <v>19.27787363309134</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -22472,6 +23695,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M408" t="n">
+        <v>20.46632238433165</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -22526,6 +23752,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M409" t="n">
+        <v>19.91348630406511</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -22580,6 +23809,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M410" t="n">
+        <v>20.48507947928282</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -22634,6 +23866,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M411" t="n">
+        <v>18.82031013461104</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -22688,6 +23923,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M412" t="n">
+        <v>18.92768152730902</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -22742,6 +23980,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M413" t="n">
+        <v>18.62544667762763</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -22796,6 +24037,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M414" t="n">
+        <v>17.33058058534913</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -22850,6 +24094,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M415" t="n">
+        <v>17.58140404259028</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -22904,6 +24151,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M416" t="n">
+        <v>16.17038586467095</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -22958,6 +24208,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M417" t="n">
+        <v>15.10805035206463</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -23009,8 +24262,11 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M418" t="n">
+        <v>13.45137994575905</v>
       </c>
     </row>
     <row r="419">
@@ -23063,8 +24319,11 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M419" t="n">
+        <v>11.60209629753497</v>
       </c>
     </row>
     <row r="420">
@@ -23120,6 +24379,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M420" t="n">
+        <v>13.32682091458836</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -23174,6 +24436,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M421" t="n">
+        <v>15.1060691765454</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -23228,6 +24493,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M422" t="n">
+        <v>14.28767557926297</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -23282,6 +24550,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M423" t="n">
+        <v>16.31820889265438</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -23336,6 +24607,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M424" t="n">
+        <v>15.25921827664092</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -23390,6 +24664,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M425" t="n">
+        <v>13.55297418522581</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -23444,6 +24721,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M426" t="n">
+        <v>14.08841186952344</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -23498,6 +24778,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M427" t="n">
+        <v>12.90138689492434</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -23552,6 +24835,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M428" t="n">
+        <v>12.97386895137219</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -23606,6 +24892,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M429" t="n">
+        <v>11.62545764494459</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -23660,6 +24949,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M430" t="n">
+        <v>10.46487113284349</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -23714,6 +25006,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M431" t="n">
+        <v>10.07348057718669</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -23765,8 +25060,11 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M432" t="n">
+        <v>11.19480080984859</v>
       </c>
     </row>
     <row r="433">
@@ -23822,6 +25120,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M433" t="n">
+        <v>12.05510187087088</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -23873,8 +25174,11 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M434" t="n">
+        <v>11.22709931533115</v>
       </c>
     </row>
     <row r="435">
@@ -23930,6 +25234,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M435" t="n">
+        <v>12.29448955102861</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -23981,8 +25288,11 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M436" t="n">
+        <v>11.19170489260252</v>
       </c>
     </row>
     <row r="437">
@@ -24038,6 +25348,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M437" t="n">
+        <v>10.87451604471749</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -24089,8 +25402,11 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M438" t="n">
+        <v>9.872692648592736</v>
       </c>
     </row>
     <row r="439">
@@ -24146,6 +25462,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M439" t="n">
+        <v>8.395000628004215</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -24200,6 +25519,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M440" t="n">
+        <v>9.739724638570545</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -24254,6 +25576,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M441" t="n">
+        <v>9.950686201130985</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -24308,6 +25633,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M442" t="n">
+        <v>9.68863716596775</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -24362,6 +25690,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M443" t="n">
+        <v>7.517794870722197</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -24416,6 +25747,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M444" t="n">
+        <v>6.552353577692626</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -24470,6 +25804,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M445" t="n">
+        <v>7.441365365307354</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -24524,6 +25861,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M446" t="n">
+        <v>8.658551094252358</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -24578,6 +25918,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M447" t="n">
+        <v>9.010641306037568</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -24632,6 +25975,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M448" t="n">
+        <v>9.237574744640535</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -24686,6 +26032,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M449" t="n">
+        <v>8.458716335046674</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -24737,8 +26086,11 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M450" t="n">
+        <v>7.041153574298872</v>
       </c>
     </row>
     <row r="451">
@@ -24794,6 +26146,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M451" t="n">
+        <v>6.093369544504634</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -24845,8 +26200,11 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M452" t="n">
+        <v>5.224203436984364</v>
       </c>
     </row>
     <row r="453">
@@ -24902,6 +26260,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M453" t="n">
+        <v>4.902653296339513</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -24956,6 +26317,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M454" t="n">
+        <v>5.435377336689485</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -25010,6 +26374,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M455" t="n">
+        <v>9.50330453339496</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -25064,6 +26431,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M456" t="n">
+        <v>9.787808248347666</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -25118,6 +26488,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M457" t="n">
+        <v>10.69268465132614</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -25172,6 +26545,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M458" t="n">
+        <v>11.74552536660614</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -25226,6 +26602,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M459" t="n">
+        <v>12.39468454471164</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -25280,6 +26659,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M460" t="n">
+        <v>11.6161279840016</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -25334,6 +26716,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M461" t="n">
+        <v>9.692835951016487</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -25388,6 +26773,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M462" t="n">
+        <v>9.329619989495177</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -25442,6 +26830,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M463" t="n">
+        <v>8.008893633018971</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -25496,6 +26887,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M464" t="n">
+        <v>10.56151621084058</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -25550,6 +26944,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M465" t="n">
+        <v>9.011011523303234</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -25604,6 +27001,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M466" t="n">
+        <v>7.788840685349666</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -25658,6 +27058,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M467" t="n">
+        <v>6.305898564070368</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -25712,6 +27115,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M468" t="n">
+        <v>5.817965953956193</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -25766,6 +27172,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M469" t="n">
+        <v>5.733697797392752</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -25820,6 +27229,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M470" t="n">
+        <v>7.229216404198255</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -25874,6 +27286,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M471" t="n">
+        <v>4.363764048766932</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -25925,8 +27340,11 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M472" t="n">
+        <v>3.778111825588153</v>
       </c>
     </row>
     <row r="473">
@@ -25982,6 +27400,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M473" t="n">
+        <v>3.341995166496947</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -26033,8 +27454,11 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M474" t="n">
+        <v>3.425369690521648</v>
       </c>
     </row>
     <row r="475">
@@ -26087,8 +27511,11 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M475" t="n">
+        <v>1.913570827104717</v>
       </c>
     </row>
     <row r="476">
@@ -26144,6 +27571,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M476" t="n">
+        <v>4.243280460744371</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -26198,6 +27628,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M477" t="n">
+        <v>3.262333909544183</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -26252,6 +27685,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M478" t="n">
+        <v>10.1711497813546</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -26306,6 +27742,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M479" t="n">
+        <v>9.17876347448399</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -26357,8 +27796,11 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M480" t="n">
+        <v>8.279705882848708</v>
       </c>
     </row>
     <row r="481">
@@ -26411,8 +27853,11 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M481" t="n">
+        <v>9.432089160591115</v>
       </c>
     </row>
     <row r="482">
@@ -26465,8 +27910,11 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M482" t="n">
+        <v>7.854866241270049</v>
       </c>
     </row>
     <row r="483">
@@ -26519,8 +27967,11 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M483" t="n">
+        <v>6.090081605238985</v>
       </c>
     </row>
     <row r="484">
@@ -26573,8 +28024,11 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M484" t="n">
+        <v>6.256759507724068</v>
       </c>
     </row>
     <row r="485">
@@ -26630,6 +28084,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M485" t="n">
+        <v>3.99299864641894</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -26681,8 +28138,11 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M486" t="n">
+        <v>5.012021028094297</v>
       </c>
     </row>
     <row r="487">
@@ -26735,8 +28195,11 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M487" t="n">
+        <v>2.80274676570086</v>
       </c>
     </row>
     <row r="488">
@@ -26789,8 +28252,11 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M488" t="n">
+        <v>0.6755908926821489</v>
       </c>
     </row>
     <row r="489">
@@ -26846,6 +28312,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M489" t="n">
+        <v>1.695708884807545</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -26897,8 +28366,11 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M490" t="n">
+        <v>1.826463214279408</v>
       </c>
     </row>
     <row r="491">
@@ -26951,8 +28423,11 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M491" t="n">
+        <v>1.411843303160105</v>
       </c>
     </row>
     <row r="492">
@@ -27008,6 +28483,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M492" t="n">
+        <v>2.973710079885197</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -27059,8 +28537,11 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M493" t="n">
+        <v>3.764116355224969</v>
       </c>
     </row>
     <row r="494">
@@ -27116,6 +28597,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M494" t="n">
+        <v>3.244646158791656</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -27170,6 +28654,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M495" t="n">
+        <v>3.345871344211153</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -27224,6 +28711,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M496" t="n">
+        <v>4.136821855022045</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -27278,6 +28768,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M497" t="n">
+        <v>5.797033349726201</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -27329,8 +28822,11 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M498" t="n">
+        <v>6.518534174280984</v>
       </c>
     </row>
     <row r="499">
@@ -27386,6 +28882,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M499" t="n">
+        <v>7.032529679602233</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -27440,6 +28939,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M500" t="n">
+        <v>5.539721514718271</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -27494,6 +28996,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M501" t="n">
+        <v>7.235135089488656</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -27545,8 +29050,11 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M502" t="n">
+        <v>4.341264499317933</v>
       </c>
     </row>
     <row r="503">
@@ -27602,6 +29110,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M503" t="n">
+        <v>4.432189065570543</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -27653,8 +29164,11 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M504" t="n">
+        <v>5.211012430084891</v>
       </c>
     </row>
     <row r="505">
@@ -27710,6 +29224,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M505" t="n">
+        <v>5.568822562652795</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -27761,8 +29278,11 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M506" t="n">
+        <v>6.804803906415688</v>
       </c>
     </row>
     <row r="507">
@@ -27818,6 +29338,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M507" t="n">
+        <v>8.446710712227823</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -27872,6 +29395,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M508" t="n">
+        <v>7.63010251390701</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -27923,8 +29449,11 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M509" t="n">
+        <v>6.072147537761837</v>
       </c>
     </row>
     <row r="510">
@@ -27977,8 +29506,11 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M510" t="n">
+        <v>6.730707541832462</v>
       </c>
     </row>
     <row r="511">
@@ -28034,6 +29566,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M511" t="n">
+        <v>7.637699291410841</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -28088,6 +29623,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M512" t="n">
+        <v>8.020376221407044</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -28142,6 +29680,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M513" t="n">
+        <v>8.386129238622431</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -28196,6 +29737,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M514" t="n">
+        <v>8.797886457423738</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -28250,6 +29794,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M515" t="n">
+        <v>10.53550778972868</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -28304,6 +29851,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M516" t="n">
+        <v>11.15052427375969</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -28358,6 +29908,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M517" t="n">
+        <v>9.82806279243071</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -28412,6 +29965,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M518" t="n">
+        <v>8.623705472179932</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -28466,6 +30022,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M519" t="n">
+        <v>9.885970447895598</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -28520,6 +30079,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M520" t="n">
+        <v>9.401748421941372</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -28574,6 +30136,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M521" t="n">
+        <v>10.36201890711073</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -28628,6 +30193,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M522" t="n">
+        <v>10.82613307152979</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -28682,6 +30250,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M523" t="n">
+        <v>11.93119694440069</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -28736,6 +30307,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M524" t="n">
+        <v>12.77915245679339</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -28790,6 +30364,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M525" t="n">
+        <v>12.86689614017454</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -28844,6 +30421,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M526" t="n">
+        <v>11.87491060404793</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -28898,6 +30478,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M527" t="n">
+        <v>13.50868203098829</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -28952,6 +30535,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M528" t="n">
+        <v>13.47869144518118</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -29006,6 +30592,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M529" t="n">
+        <v>13.95090838433188</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -29060,6 +30649,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M530" t="n">
+        <v>15.61802672411277</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -29114,6 +30706,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M531" t="n">
+        <v>28.74609072086034</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -29168,6 +30763,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M532" t="n">
+        <v>27.7724008555948</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -29222,6 +30820,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M533" t="n">
+        <v>27.82525345301803</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -29276,6 +30877,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M534" t="n">
+        <v>26.46792778798179</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -29330,6 +30934,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M535" t="n">
+        <v>29.22360502820581</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -29384,6 +30991,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M536" t="n">
+        <v>27.38836200969132</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -29438,6 +31048,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M537" t="n">
+        <v>27.88676007002373</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -29492,6 +31105,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M538" t="n">
+        <v>29.97157110946078</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -29546,6 +31162,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M539" t="n">
+        <v>28.57701455208899</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -29600,6 +31219,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M540" t="n">
+        <v>27.03102931306775</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -29654,6 +31276,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M541" t="n">
+        <v>29.26841802235221</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -29708,6 +31333,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M542" t="n">
+        <v>29.0094861499418</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -29762,6 +31390,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M543" t="n">
+        <v>29.94287896393588</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -29816,6 +31447,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M544" t="n">
+        <v>23.49059073099229</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -29870,6 +31504,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M545" t="n">
+        <v>25.02894930018699</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -29924,6 +31561,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M546" t="n">
+        <v>25.69877734415597</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -29978,6 +31618,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M547" t="n">
+        <v>26.8309713864022</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -30032,6 +31675,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M548" t="n">
+        <v>28.46914497947251</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -30086,6 +31732,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M549" t="n">
+        <v>26.39580203888356</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -30140,6 +31789,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M550" t="n">
+        <v>22.94579218156469</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -30194,6 +31846,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M551" t="n">
+        <v>23.59600367148786</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -30248,6 +31903,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M552" t="n">
+        <v>25.05308674513381</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -30302,6 +31960,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M553" t="n">
+        <v>25.08527623377424</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -30356,6 +32017,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M554" t="n">
+        <v>25.38010465942391</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -30410,6 +32074,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M555" t="n">
+        <v>22.87769035498897</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -30464,6 +32131,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M556" t="n">
+        <v>20.813462565193</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -30518,6 +32188,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M557" t="n">
+        <v>22.1957130846889</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -30572,6 +32245,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M558" t="n">
+        <v>20.00297422848009</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -30626,6 +32302,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M559" t="n">
+        <v>18.57557201561975</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -30680,6 +32359,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M560" t="n">
+        <v>20.9302167017395</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -30734,6 +32416,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M561" t="n">
+        <v>17.03050950358794</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -30788,6 +32473,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M562" t="n">
+        <v>17.56216242385469</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -30842,6 +32530,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M563" t="n">
+        <v>15.74685417347042</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -30896,6 +32587,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M564" t="n">
+        <v>14.21622544117893</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -30950,6 +32644,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M565" t="n">
+        <v>13.10378987529502</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -31004,6 +32701,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M566" t="n">
+        <v>13.68237627168168</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -31058,6 +32758,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M567" t="n">
+        <v>15.10383296813158</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -31112,6 +32815,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M568" t="n">
+        <v>17.42856651162433</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -31166,6 +32872,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M569" t="n">
+        <v>7.95277326914006</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -31220,6 +32929,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M570" t="n">
+        <v>8.972883366578571</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -31274,6 +32986,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M571" t="n">
+        <v>11.1112489781479</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -31328,6 +33043,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M572" t="n">
+        <v>11.98136677988298</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -31382,6 +33100,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M573" t="n">
+        <v>10.301312129618</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -31436,6 +33157,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M574" t="n">
+        <v>12.71065927288708</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -31490,6 +33214,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M575" t="n">
+        <v>9.722222908986064</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -31544,6 +33271,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M576" t="n">
+        <v>11.18125561136973</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -31598,6 +33328,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M577" t="n">
+        <v>12.46800181050486</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -31652,6 +33385,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M578" t="n">
+        <v>9.849819876967201</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -31706,6 +33442,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M579" t="n">
+        <v>8.32600463595735</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -31760,6 +33499,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M580" t="n">
+        <v>12.32239853393895</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -31814,6 +33556,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M581" t="n">
+        <v>13.79608826034852</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -31868,6 +33613,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M582" t="n">
+        <v>13.21068223650545</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -31922,6 +33670,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M583" t="n">
+        <v>16.06485307273816</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -31976,6 +33727,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M584" t="n">
+        <v>18.34850071812834</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -32030,6 +33784,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M585" t="n">
+        <v>15.51846828099046</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -32084,6 +33841,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M586" t="n">
+        <v>13.78305912132552</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -32138,6 +33898,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M587" t="n">
+        <v>15.35214262903821</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -32192,6 +33955,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M588" t="n">
+        <v>16.90541719164097</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -32246,6 +34012,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M589" t="n">
+        <v>14.99130132093128</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -32300,6 +34069,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M590" t="n">
+        <v>14.48837159044518</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -32354,6 +34126,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M591" t="n">
+        <v>16.36370000870799</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -32408,6 +34183,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M592" t="n">
+        <v>18.41898781875737</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -32462,6 +34240,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M593" t="n">
+        <v>19.52603041760471</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -32516,6 +34297,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M594" t="n">
+        <v>21.77563073262616</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -32570,6 +34354,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M595" t="n">
+        <v>19.30383364418813</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -32624,6 +34411,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M596" t="n">
+        <v>20.78737387779388</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -32678,6 +34468,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M597" t="n">
+        <v>23.91890774359391</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -32732,6 +34525,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M598" t="n">
+        <v>19.7469423130028</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -32786,6 +34582,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M599" t="n">
+        <v>22.53008875203476</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -32840,6 +34639,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M600" t="n">
+        <v>21.35920071884928</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -32894,6 +34696,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M601" t="n">
+        <v>27.04421146408205</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -32948,6 +34753,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M602" t="n">
+        <v>25.64110703718557</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -33002,6 +34810,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M603" t="n">
+        <v>24.04211171415526</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -33056,6 +34867,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M604" t="n">
+        <v>27.07781483939726</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -33110,6 +34924,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M605" t="n">
+        <v>25.45058173597278</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -33164,6 +34981,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M606" t="n">
+        <v>23.91046564087427</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -33218,6 +35038,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M607" t="n">
+        <v>22.00419553321469</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -33272,6 +35095,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M608" t="n">
+        <v>25.32242707536212</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -33326,6 +35152,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M609" t="n">
+        <v>24.99335053382609</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -33380,6 +35209,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M610" t="n">
+        <v>23.20157581358511</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -33434,6 +35266,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M611" t="n">
+        <v>17.12278874337613</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -33488,6 +35323,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M612" t="n">
+        <v>19.85150895699519</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -33542,6 +35380,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M613" t="n">
+        <v>21.7023236625486</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -33596,6 +35437,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M614" t="n">
+        <v>19.02567692890858</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -33650,6 +35494,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M615" t="n">
+        <v>19.63392926872114</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -33704,6 +35551,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M616" t="n">
+        <v>17.70523253172619</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -33758,6 +35608,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M617" t="n">
+        <v>9.063757850695445</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -33812,6 +35665,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M618" t="n">
+        <v>11.25912513072626</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -33866,6 +35722,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M619" t="n">
+        <v>13.16154323411902</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -33920,6 +35779,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M620" t="n">
+        <v>15.49298540824992</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -33974,6 +35836,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M621" t="n">
+        <v>13.49265700032457</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -34028,6 +35893,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M622" t="n">
+        <v>10.68119601365643</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -34082,6 +35950,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M623" t="n">
+        <v>8.841189719193235</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -34136,6 +36007,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M624" t="n">
+        <v>11.43678597000386</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -34190,6 +36064,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M625" t="n">
+        <v>12.39135487419154</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -34244,6 +36121,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M626" t="n">
+        <v>15.94677087577095</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -34298,6 +36178,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M627" t="n">
+        <v>16.30448554679588</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -34352,6 +36235,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M628" t="n">
+        <v>19.32766359399203</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -34406,6 +36292,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M629" t="n">
+        <v>17.22486084985174</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -34460,6 +36349,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M630" t="n">
+        <v>14.84839635829341</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -34514,6 +36406,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M631" t="n">
+        <v>14.20546837023755</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -34568,6 +36463,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M632" t="n">
+        <v>14.89630313222636</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -34622,6 +36520,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M633" t="n">
+        <v>16.07886896214261</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -34676,6 +36577,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M634" t="n">
+        <v>18.21090069277281</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -34730,6 +36634,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M635" t="n">
+        <v>19.51054992256094</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -34784,6 +36691,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M636" t="n">
+        <v>20.55889165984807</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -34838,6 +36748,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M637" t="n">
+        <v>21.92239971239855</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -34892,6 +36805,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M638" t="n">
+        <v>20.87638319325923</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -34946,6 +36862,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M639" t="n">
+        <v>19.75671409417498</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -35000,6 +36919,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M640" t="n">
+        <v>19.10290514630763</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -35054,6 +36976,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M641" t="n">
+        <v>20.96348706856081</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -35108,6 +37033,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M642" t="n">
+        <v>23.61690095437012</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -35162,6 +37090,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M643" t="n">
+        <v>24.88110698327878</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -35216,6 +37147,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M644" t="n">
+        <v>26.82362685455016</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -35270,6 +37204,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M645" t="n">
+        <v>25.29319452473423</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -35324,6 +37261,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M646" t="n">
+        <v>27.63177758553458</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -35378,6 +37318,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M647" t="n">
+        <v>27.97936156868499</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -35432,6 +37375,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M648" t="n">
+        <v>29.24998499076105</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -35486,6 +37432,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M649" t="n">
+        <v>20.76594009731905</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -35540,6 +37489,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M650" t="n">
+        <v>24.30797130751673</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -35594,6 +37546,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M651" t="n">
+        <v>20.60388375513926</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -35648,6 +37603,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M652" t="n">
+        <v>21.99513434449697</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -35702,6 +37660,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M653" t="n">
+        <v>21.74793458356162</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -35756,6 +37717,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M654" t="n">
+        <v>23.19385417761423</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -35810,6 +37774,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M655" t="n">
+        <v>23.72862833522372</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -35864,6 +37831,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M656" t="n">
+        <v>14.4823944854175</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -35918,6 +37888,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M657" t="n">
+        <v>14.65740738048139</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -35972,6 +37945,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M658" t="n">
+        <v>15.14158708220218</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -36026,6 +38002,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M659" t="n">
+        <v>16.18822758823074</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -36080,6 +38059,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M660" t="n">
+        <v>17.37657037187346</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -36134,6 +38116,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M661" t="n">
+        <v>19.34020305586487</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -36188,6 +38173,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M662" t="n">
+        <v>18.4579306518376</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -36242,6 +38230,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M663" t="n">
+        <v>17.3586346103648</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -36296,6 +38287,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M664" t="n">
+        <v>16.96418320207086</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -36350,6 +38344,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M665" t="n">
+        <v>15.69793246970044</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -36404,6 +38401,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M666" t="n">
+        <v>15.70303381265683</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -36458,6 +38458,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M667" t="n">
+        <v>16.7057340494074</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -36512,6 +38515,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M668" t="n">
+        <v>17.79681015241311</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -36566,6 +38572,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M669" t="n">
+        <v>9.944315023848953</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -36617,8 +38626,11 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M670" t="n">
+        <v>10.49878365137268</v>
       </c>
     </row>
     <row r="671">
@@ -36674,6 +38686,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M671" t="n">
+        <v>11.72683578706335</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -36728,6 +38743,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M672" t="n">
+        <v>12.69464476071007</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -36782,6 +38800,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M673" t="n">
+        <v>13.04919005009756</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -36836,6 +38857,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M674" t="n">
+        <v>12.81994346982327</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -36890,6 +38914,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M675" t="n">
+        <v>11.80972987118596</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -36944,6 +38971,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M676" t="n">
+        <v>13.89770597042294</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -36998,6 +39028,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M677" t="n">
+        <v>22.84707191377045</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -37052,6 +39085,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M678" t="n">
+        <v>24.75728012117731</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -37106,6 +39142,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M679" t="n">
+        <v>24.87412539647522</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -37160,6 +39199,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M680" t="n">
+        <v>27.05576801351795</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -37214,6 +39256,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M681" t="n">
+        <v>24.011232222047</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -37268,6 +39313,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M682" t="n">
+        <v>28.02282754797113</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -37322,6 +39370,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M683" t="n">
+        <v>29.17366963985253</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -37376,6 +39427,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M684" t="n">
+        <v>29.1784619800302</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -37430,6 +39484,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M685" t="n">
+        <v>28.80898478926461</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -37484,6 +39541,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M686" t="n">
+        <v>25.22856371181005</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -37538,6 +39598,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M687" t="n">
+        <v>26.76619091151443</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -37592,6 +39655,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M688" t="n">
+        <v>27.95415067967116</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -37646,6 +39712,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M689" t="n">
+        <v>29.95625704943169</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -37700,6 +39769,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M690" t="n">
+        <v>28.62506753609435</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -37754,6 +39826,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M691" t="n">
+        <v>27.21224820593606</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -37808,6 +39883,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M692" t="n">
+        <v>25.91336699164395</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -37862,6 +39940,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M693" t="n">
+        <v>27.24298093210822</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -37916,6 +39997,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M694" t="n">
+        <v>27.98251562148624</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -37970,6 +40054,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M695" t="n">
+        <v>29.37041374929474</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -38024,6 +40111,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M696" t="n">
+        <v>28.25292969416849</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -38078,6 +40168,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M697" t="n">
+        <v>28.95309532061442</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -38132,6 +40225,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M698" t="n">
+        <v>22.11818928782817</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -38186,6 +40282,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M699" t="n">
+        <v>21.28571495524887</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -38240,6 +40339,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M700" t="n">
+        <v>21.53929811036426</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -38294,6 +40396,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M701" t="n">
+        <v>25.3382807392915</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
@@ -38348,6 +40453,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M702" t="n">
+        <v>29.10661816263117</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
@@ -38402,6 +40510,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M703" t="n">
+        <v>27.42279778413307</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
@@ -38456,6 +40567,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M704" t="n">
+        <v>28.29474255937645</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
@@ -38510,6 +40624,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M705" t="n">
+        <v>29.50630433396102</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
@@ -38564,6 +40681,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M706" t="n">
+        <v>28.94482036193109</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -38618,6 +40738,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M707" t="n">
+        <v>29.3894583830017</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
@@ -38672,6 +40795,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M708" t="n">
+        <v>26.44503192917913</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
@@ -38726,6 +40852,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M709" t="n">
+        <v>27.27449738820237</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -38780,6 +40909,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M710" t="n">
+        <v>25.04285511942386</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -38834,6 +40966,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M711" t="n">
+        <v>25.43706679773646</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
@@ -38888,6 +41023,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M712" t="n">
+        <v>23.85907459641943</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
@@ -38942,6 +41080,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M713" t="n">
+        <v>21.76007850344394</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
@@ -38996,6 +41137,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M714" t="n">
+        <v>22.88447355931936</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
@@ -39050,6 +41194,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M715" t="n">
+        <v>24.35695624891005</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
@@ -39104,6 +41251,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M716" t="n">
+        <v>25.98309551834682</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
@@ -39158,6 +41308,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M717" t="n">
+        <v>20.25990498767328</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
@@ -39212,6 +41365,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M718" t="n">
+        <v>22.35007872164859</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
@@ -39266,6 +41422,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M719" t="n">
+        <v>24.36963940295291</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -39320,6 +41479,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M720" t="n">
+        <v>21.83412612557938</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
@@ -39374,6 +41536,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M721" t="n">
+        <v>20.47434150407944</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
@@ -39428,6 +41593,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M722" t="n">
+        <v>19.02210852689638</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
@@ -39482,6 +41650,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M723" t="n">
+        <v>22.12629527011151</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
@@ -39536,6 +41707,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M724" t="n">
+        <v>22.99982318117807</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
@@ -39590,6 +41764,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M725" t="n">
+        <v>24.69464660564901</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
@@ -39644,6 +41821,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M726" t="n">
+        <v>27.42053861630828</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
@@ -39698,6 +41878,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M727" t="n">
+        <v>28.60002776387148</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
@@ -39752,6 +41935,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M728" t="n">
+        <v>29.80650778099482</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
@@ -39806,6 +41992,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M729" t="n">
+        <v>28.22300250562031</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
@@ -39860,6 +42049,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M730" t="n">
+        <v>26.70034315010365</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
@@ -39914,6 +42106,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M731" t="n">
+        <v>25.70608721655669</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
@@ -39968,6 +42163,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M732" t="n">
+        <v>28.69359120956123</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
@@ -40022,6 +42220,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M733" t="n">
+        <v>11.52208809767908</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
@@ -40076,6 +42277,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M734" t="n">
+        <v>12.75658388573798</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
@@ -40130,6 +42334,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M735" t="n">
+        <v>13.29551202806644</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -40184,6 +42391,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M736" t="n">
+        <v>14.26606340473315</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
@@ -40238,6 +42448,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M737" t="n">
+        <v>15.22137314215683</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
@@ -40292,6 +42505,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M738" t="n">
+        <v>14.36508710413814</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
@@ -40346,6 +42562,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M739" t="n">
+        <v>15.28000559011673</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
@@ -40400,6 +42619,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M740" t="n">
+        <v>10.56224533720831</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
@@ -40454,6 +42676,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M741" t="n">
+        <v>12.99457535732324</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
@@ -40508,6 +42733,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M742" t="n">
+        <v>13.13969501105484</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
@@ -40562,6 +42790,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M743" t="n">
+        <v>11.39740782966181</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
@@ -40616,6 +42847,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M744" t="n">
+        <v>11.08263360075275</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
@@ -40670,6 +42904,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M745" t="n">
+        <v>12.26650715803243</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
@@ -40724,6 +42961,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M746" t="n">
+        <v>13.64000136748704</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
@@ -40778,6 +43018,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M747" t="n">
+        <v>12.01767630292884</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
@@ -40832,6 +43075,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M748" t="n">
+        <v>13.56905118207075</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -40886,6 +43132,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M749" t="n">
+        <v>15.05807170358777</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
@@ -40940,6 +43189,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M750" t="n">
+        <v>13.98838760855506</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
@@ -40994,6 +43246,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M751" t="n">
+        <v>13.66085942187427</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
@@ -41048,6 +43303,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M752" t="n">
+        <v>14.12596720848249</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
@@ -41102,6 +43360,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M753" t="n">
+        <v>14.86327751035044</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
@@ -41156,6 +43417,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M754" t="n">
+        <v>14.91312517796847</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
@@ -41210,6 +43474,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M755" t="n">
+        <v>15.1579104112576</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
@@ -41264,6 +43531,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M756" t="n">
+        <v>14.54476424580267</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
@@ -41318,6 +43588,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M757" t="n">
+        <v>16.5413166880522</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
@@ -41372,6 +43645,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M758" t="n">
+        <v>15.85068117272509</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
@@ -41426,6 +43702,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M759" t="n">
+        <v>17.78530363660735</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
@@ -41480,6 +43759,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M760" t="n">
+        <v>16.40076032916052</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
@@ -41534,6 +43816,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M761" t="n">
+        <v>15.57972007610643</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
@@ -41588,6 +43873,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M762" t="n">
+        <v>16.91845262539752</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
@@ -41642,6 +43930,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M763" t="n">
+        <v>18.18373359535024</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
@@ -41696,6 +43987,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M764" t="n">
+        <v>18.60219176576112</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
@@ -41750,6 +44044,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M765" t="n">
+        <v>18.3243466363328</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
@@ -41804,6 +44101,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M766" t="n">
+        <v>19.71468517735025</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
@@ -41858,6 +44158,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M767" t="n">
+        <v>19.77303439277236</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
@@ -41912,6 +44215,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M768" t="n">
+        <v>20.51224556926029</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
@@ -41966,6 +44272,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M769" t="n">
+        <v>18.54945092326344</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
@@ -42020,6 +44329,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M770" t="n">
+        <v>20.11772178968818</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
@@ -42074,6 +44386,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M771" t="n">
+        <v>20.73408800552723</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
@@ -42128,6 +44443,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M772" t="n">
+        <v>21.69199950067098</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
@@ -42182,6 +44500,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M773" t="n">
+        <v>22.44670725460336</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
@@ -42236,6 +44557,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M774" t="n">
+        <v>21.5410180037691</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
@@ -42290,6 +44614,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M775" t="n">
+        <v>20.6267198016418</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
@@ -42344,6 +44671,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M776" t="n">
+        <v>21.48823149031189</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
@@ -42398,6 +44728,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M777" t="n">
+        <v>21.46236240475735</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
@@ -42452,6 +44785,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M778" t="n">
+        <v>14.65759334196107</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
@@ -42506,6 +44842,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M779" t="n">
+        <v>15.47771210084015</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
@@ -42560,6 +44899,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M780" t="n">
+        <v>16.67682842878075</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
@@ -42614,6 +44956,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M781" t="n">
+        <v>17.9943812203843</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
@@ -42668,6 +45013,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M782" t="n">
+        <v>18.20346918927237</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
@@ -42722,6 +45070,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M783" t="n">
+        <v>17.46739370208777</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
@@ -42776,6 +45127,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M784" t="n">
+        <v>17.31133629315634</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
@@ -42830,6 +45184,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M785" t="n">
+        <v>18.29080490320431</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
@@ -42884,6 +45241,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M786" t="n">
+        <v>17.97707049687516</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
@@ -42938,6 +45298,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M787" t="n">
+        <v>18.11570929017005</v>
+      </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
@@ -42992,6 +45355,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M788" t="n">
+        <v>18.84993268359209</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
@@ -43046,6 +45412,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M789" t="n">
+        <v>19.77310357809456</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
@@ -43100,6 +45469,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M790" t="n">
+        <v>18.69525861288022</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
@@ -43154,6 +45526,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M791" t="n">
+        <v>19.38604356964011</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
@@ -43208,6 +45583,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M792" t="n">
+        <v>20.20984167195909</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
@@ -43262,6 +45640,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M793" t="n">
+        <v>16.79814310019284</v>
+      </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
@@ -43316,6 +45697,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M794" t="n">
+        <v>16.88776885600567</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
@@ -43370,6 +45754,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M795" t="n">
+        <v>16.33190983599553</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
@@ -43424,6 +45811,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M796" t="n">
+        <v>16.13518847795801</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
@@ -43478,6 +45868,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M797" t="n">
+        <v>15.58601156869051</v>
+      </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
@@ -43532,6 +45925,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M798" t="n">
+        <v>17.38829795448268</v>
+      </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
@@ -43586,6 +45982,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M799" t="n">
+        <v>18.12044048561678</v>
+      </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
@@ -43640,6 +46039,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M800" t="n">
+        <v>17.30721869270189</v>
+      </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
@@ -43694,6 +46096,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M801" t="n">
+        <v>18.62114643554878</v>
+      </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
@@ -43748,6 +46153,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M802" t="n">
+        <v>18.27578829047847</v>
+      </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
@@ -43802,6 +46210,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M803" t="n">
+        <v>18.89640803154149</v>
+      </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
@@ -43856,6 +46267,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M804" t="n">
+        <v>19.22384308552864</v>
+      </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
@@ -43910,6 +46324,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M805" t="n">
+        <v>19.55039264483897</v>
+      </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
@@ -43964,6 +46381,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M806" t="n">
+        <v>18.91896700097504</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
@@ -44018,6 +46438,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M807" t="n">
+        <v>18.0658504060047</v>
+      </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
@@ -44072,6 +46495,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M808" t="n">
+        <v>19.6799072425489</v>
+      </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
@@ -44126,6 +46552,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M809" t="n">
+        <v>20.77672298552163</v>
+      </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
@@ -44180,6 +46609,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M810" t="n">
+        <v>19.70716763792458</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
@@ -44234,6 +46666,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M811" t="n">
+        <v>20.21787402246587</v>
+      </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
@@ -44288,6 +46723,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M812" t="n">
+        <v>19.7114609092717</v>
+      </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
@@ -44342,6 +46780,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M813" t="n">
+        <v>20.62846299501177</v>
+      </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
@@ -44396,6 +46837,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M814" t="n">
+        <v>20.85125071594184</v>
+      </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
@@ -44450,6 +46894,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M815" t="n">
+        <v>21.22086876664077</v>
+      </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
@@ -44504,6 +46951,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M816" t="n">
+        <v>20.82060259206874</v>
+      </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
@@ -44558,6 +47008,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M817" t="n">
+        <v>21.60791801583882</v>
+      </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
@@ -44612,6 +47065,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M818" t="n">
+        <v>21.96355973130773</v>
+      </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
@@ -44666,6 +47122,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M819" t="n">
+        <v>22.47923338214522</v>
+      </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
@@ -44720,6 +47179,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M820" t="n">
+        <v>23.66740167315776</v>
+      </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
@@ -44774,6 +47236,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M821" t="n">
+        <v>24.0831511278222</v>
+      </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
@@ -44828,6 +47293,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M822" t="n">
+        <v>24.47537362605875</v>
+      </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
@@ -44882,6 +47350,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M823" t="n">
+        <v>23.74174402915142</v>
+      </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
@@ -44936,6 +47407,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M824" t="n">
+        <v>22.93059032468797</v>
+      </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
@@ -44990,6 +47464,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M825" t="n">
+        <v>22.54199583149501</v>
+      </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
@@ -45044,6 +47521,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M826" t="n">
+        <v>22.06745922942715</v>
+      </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
@@ -45098,6 +47578,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M827" t="n">
+        <v>23.11151724502698</v>
+      </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
@@ -45152,6 +47635,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M828" t="n">
+        <v>25.45233503618879</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
@@ -45206,6 +47692,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M829" t="n">
+        <v>25.47556296074898</v>
+      </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
@@ -45260,6 +47749,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M830" t="n">
+        <v>27.6574004272682</v>
+      </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
@@ -45314,6 +47806,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M831" t="n">
+        <v>29.44195334411296</v>
+      </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
@@ -45368,6 +47863,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M832" t="n">
+        <v>27.87857159527879</v>
+      </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
@@ -45422,6 +47920,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M833" t="n">
+        <v>27.35317218367092</v>
+      </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
@@ -45476,6 +47977,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M834" t="n">
+        <v>26.72773102722701</v>
+      </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
@@ -45530,6 +48034,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M835" t="n">
+        <v>26.51802021889527</v>
+      </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
@@ -45584,6 +48091,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M836" t="n">
+        <v>27.54201145107437</v>
+      </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
@@ -45638,6 +48148,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M837" t="n">
+        <v>28.70480814866294</v>
+      </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
@@ -45692,6 +48205,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M838" t="n">
+        <v>27.97500450376254</v>
+      </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
@@ -45746,6 +48262,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M839" t="n">
+        <v>29.12818157167928</v>
+      </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
@@ -45800,6 +48319,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M840" t="n">
+        <v>29.30166780955608</v>
+      </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
@@ -45854,6 +48376,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M841" t="n">
+        <v>25.20337554184673</v>
+      </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
@@ -45908,6 +48433,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M842" t="n">
+        <v>25.11800766351083</v>
+      </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
@@ -45962,6 +48490,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M843" t="n">
+        <v>25.72446363717904</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
@@ -46016,6 +48547,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M844" t="n">
+        <v>24.96388656550379</v>
+      </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
@@ -46070,6 +48604,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M845" t="n">
+        <v>25.77370733089744</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
@@ -46124,6 +48661,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M846" t="n">
+        <v>27.68338885986019</v>
+      </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
@@ -46178,6 +48718,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M847" t="n">
+        <v>27.19005789874875</v>
+      </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
@@ -46232,6 +48775,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M848" t="n">
+        <v>27.54358656147791</v>
+      </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
@@ -46286,6 +48832,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M849" t="n">
+        <v>28.30114597499782</v>
+      </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
@@ -46340,6 +48889,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M850" t="n">
+        <v>29.0278637985979</v>
+      </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
@@ -46394,6 +48946,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M851" t="n">
+        <v>27.41636347465176</v>
+      </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
@@ -46448,6 +49003,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M852" t="n">
+        <v>29.54572319306211</v>
+      </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
@@ -46502,6 +49060,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M853" t="n">
+        <v>29.30733291690898</v>
+      </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
@@ -46556,6 +49117,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M854" t="n">
+        <v>29.43238436861622</v>
+      </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
@@ -46610,6 +49174,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M855" t="n">
+        <v>26.10534939941755</v>
+      </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
@@ -46664,6 +49231,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M856" t="n">
+        <v>24.94197995084301</v>
+      </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
@@ -46718,6 +49288,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M857" t="n">
+        <v>25.26506680521802</v>
+      </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
@@ -46772,6 +49345,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M858" t="n">
+        <v>24.19238151332032</v>
+      </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
@@ -46826,6 +49402,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M859" t="n">
+        <v>24.58180490034761</v>
+      </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
@@ -46880,6 +49459,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M860" t="n">
+        <v>25.26382853593282</v>
+      </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
@@ -46934,6 +49516,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M861" t="n">
+        <v>25.41182783878996</v>
+      </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
@@ -46988,6 +49573,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M862" t="n">
+        <v>25.70732756420644</v>
+      </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
@@ -47042,6 +49630,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M863" t="n">
+        <v>26.63206104919135</v>
+      </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
@@ -47096,6 +49687,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M864" t="n">
+        <v>26.92712372822174</v>
+      </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
@@ -47150,6 +49744,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M865" t="n">
+        <v>27.85139645507005</v>
+      </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
@@ -47204,6 +49801,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M866" t="n">
+        <v>26.48518021254072</v>
+      </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
@@ -47258,6 +49858,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M867" t="n">
+        <v>26.20650167974824</v>
+      </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
@@ -47312,6 +49915,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M868" t="n">
+        <v>25.71919759822122</v>
+      </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
@@ -47366,6 +49972,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M869" t="n">
+        <v>26.84492414965744</v>
+      </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
@@ -47420,6 +50029,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M870" t="n">
+        <v>27.30058848561738</v>
+      </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
@@ -47474,6 +50086,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M871" t="n">
+        <v>27.75218487251482</v>
+      </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
@@ -47528,6 +50143,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M872" t="n">
+        <v>28.25831338728309</v>
+      </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
@@ -47582,6 +50200,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M873" t="n">
+        <v>29.14356720033132</v>
+      </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
@@ -47636,6 +50257,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M874" t="n">
+        <v>28.4109991820529</v>
+      </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
@@ -47690,6 +50314,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M875" t="n">
+        <v>28.79315767763233</v>
+      </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
@@ -47744,6 +50371,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M876" t="n">
+        <v>28.04725119405209</v>
+      </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
@@ -47798,6 +50428,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M877" t="n">
+        <v>19.59618317967981</v>
+      </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
@@ -47852,6 +50485,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M878" t="n">
+        <v>19.82714198495678</v>
+      </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
@@ -47906,6 +50542,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M879" t="n">
+        <v>20.9322058359209</v>
+      </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
@@ -47960,6 +50599,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M880" t="n">
+        <v>22.11120452007717</v>
+      </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
@@ -48014,6 +50656,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M881" t="n">
+        <v>23.99749874257493</v>
+      </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
@@ -48068,6 +50713,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M882" t="n">
+        <v>22.76181112137159</v>
+      </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
@@ -48122,6 +50770,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M883" t="n">
+        <v>22.40538547863309</v>
+      </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
@@ -48176,6 +50827,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M884" t="n">
+        <v>21.85867624713379</v>
+      </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
@@ -48230,6 +50884,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M885" t="n">
+        <v>20.7649506425934</v>
+      </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
@@ -48284,6 +50941,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M886" t="n">
+        <v>20.77522864695848</v>
+      </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
@@ -48338,6 +50998,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M887" t="n">
+        <v>21.89175991079359</v>
+      </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
@@ -48392,6 +51055,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M888" t="n">
+        <v>22.54187937667849</v>
+      </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
@@ -48446,6 +51112,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M889" t="n">
+        <v>22.93431595557783</v>
+      </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
@@ -48500,6 +51169,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M890" t="n">
+        <v>23.08210695501094</v>
+      </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
@@ -48554,6 +51226,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M891" t="n">
+        <v>22.7339158651135</v>
+      </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
@@ -48608,6 +51283,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M892" t="n">
+        <v>22.92681188631007</v>
+      </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
@@ -48662,6 +51340,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M893" t="n">
+        <v>23.23521496173573</v>
+      </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
@@ -48716,6 +51397,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M894" t="n">
+        <v>23.16165653796955</v>
+      </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
@@ -48770,6 +51454,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M895" t="n">
+        <v>22.48036972327583</v>
+      </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
@@ -48824,6 +51511,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M896" t="n">
+        <v>23.47110002309749</v>
+      </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
@@ -48878,6 +51568,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M897" t="n">
+        <v>24.05992528284597</v>
+      </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
@@ -48932,6 +51625,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M898" t="n">
+        <v>24.58975202492171</v>
+      </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
@@ -48986,6 +51682,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M899" t="n">
+        <v>26.01014246315752</v>
+      </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
@@ -49040,6 +51739,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M900" t="n">
+        <v>25.80165145648546</v>
+      </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
@@ -49094,6 +51796,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M901" t="n">
+        <v>24.82132638402594</v>
+      </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
@@ -49148,6 +51853,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M902" t="n">
+        <v>23.77749649565969</v>
+      </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
@@ -49202,6 +51910,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M903" t="n">
+        <v>24.47953450781333</v>
+      </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
@@ -49256,6 +51967,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M904" t="n">
+        <v>23.57073018205734</v>
+      </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
@@ -49310,6 +52024,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M905" t="n">
+        <v>24.14913597738552</v>
+      </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
@@ -49364,6 +52081,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M906" t="n">
+        <v>24.1670107050111</v>
+      </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
@@ -49418,6 +52138,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M907" t="n">
+        <v>24.92982886058893</v>
+      </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
@@ -49472,6 +52195,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M908" t="n">
+        <v>25.50092487135766</v>
+      </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
@@ -49526,6 +52252,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M909" t="n">
+        <v>25.03663436009976</v>
+      </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
@@ -49580,6 +52309,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M910" t="n">
+        <v>26.41624186547368</v>
+      </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
@@ -49634,6 +52366,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M911" t="n">
+        <v>26.55246366745131</v>
+      </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
@@ -49688,6 +52423,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M912" t="n">
+        <v>25.81104441932566</v>
+      </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
@@ -49742,6 +52480,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M913" t="n">
+        <v>26.74462793510302</v>
+      </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
@@ -49796,6 +52537,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M914" t="n">
+        <v>27.26677163394101</v>
+      </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
@@ -49850,6 +52594,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M915" t="n">
+        <v>27.5973333091858</v>
+      </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
@@ -49904,6 +52651,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M916" t="n">
+        <v>23.27463848626942</v>
+      </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
@@ -49958,6 +52708,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M917" t="n">
+        <v>23.97282047136676</v>
+      </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
@@ -50012,6 +52765,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M918" t="n">
+        <v>25.14234375273729</v>
+      </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
@@ -50066,6 +52822,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M919" t="n">
+        <v>25.82813451174644</v>
+      </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
@@ -50120,6 +52879,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M920" t="n">
+        <v>26.7717700851985</v>
+      </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
@@ -50174,6 +52936,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M921" t="n">
+        <v>25.64688532702426</v>
+      </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
@@ -50228,6 +52993,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M922" t="n">
+        <v>24.78406355536786</v>
+      </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
@@ -50282,6 +53050,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M923" t="n">
+        <v>26.37113866110244</v>
+      </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
@@ -50336,6 +53107,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M924" t="n">
+        <v>27.44613396385126</v>
+      </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
@@ -50390,6 +53164,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M925" t="n">
+        <v>27.22188960886616</v>
+      </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
@@ -50444,6 +53221,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M926" t="n">
+        <v>27.34844575216787</v>
+      </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
@@ -50498,6 +53278,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M927" t="n">
+        <v>28.7601593728127</v>
+      </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
@@ -50552,6 +53335,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M928" t="n">
+        <v>28.91691563691735</v>
+      </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
@@ -50606,6 +53392,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M929" t="n">
+        <v>28.470100747556</v>
+      </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
@@ -50660,6 +53449,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M930" t="n">
+        <v>28.29343508475309</v>
+      </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
@@ -50714,6 +53506,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M931" t="n">
+        <v>29.41601792442312</v>
+      </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
@@ -50768,6 +53563,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M932" t="n">
+        <v>29.56006593839261</v>
+      </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
@@ -50822,6 +53620,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M933" t="n">
+        <v>29.95799180849585</v>
+      </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
@@ -50876,6 +53677,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M934" t="n">
+        <v>25.77299865393554</v>
+      </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
@@ -50930,6 +53734,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M935" t="n">
+        <v>26.61119085980177</v>
+      </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
@@ -50984,6 +53791,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M936" t="n">
+        <v>26.83312261901736</v>
+      </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
@@ -51038,6 +53848,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M937" t="n">
+        <v>27.43903435155091</v>
+      </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
@@ -51092,6 +53905,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M938" t="n">
+        <v>27.39445468694237</v>
+      </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
@@ -51146,6 +53962,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M939" t="n">
+        <v>27.97057753248075</v>
+      </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
@@ -51200,6 +54019,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M940" t="n">
+        <v>28.49631363971772</v>
+      </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
@@ -51254,6 +54076,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M941" t="n">
+        <v>28.23704606209474</v>
+      </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
@@ -51308,6 +54133,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M942" t="n">
+        <v>29.17066175181486</v>
+      </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
@@ -51362,6 +54190,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M943" t="n">
+        <v>28.74502980112873</v>
+      </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
@@ -51416,6 +54247,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M944" t="n">
+        <v>29.38921044133187</v>
+      </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
@@ -51470,6 +54304,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M945" t="n">
+        <v>25.98084050498647</v>
+      </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
@@ -51524,6 +54361,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M946" t="n">
+        <v>28.14543874444078</v>
+      </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
@@ -51578,6 +54418,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M947" t="n">
+        <v>27.29133982644254</v>
+      </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
@@ -51632,6 +54475,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M948" t="n">
+        <v>29.10703109907647</v>
+      </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
@@ -51686,6 +54532,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M949" t="n">
+        <v>27.76661124197371</v>
+      </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
@@ -51740,6 +54589,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M950" t="n">
+        <v>28.44239827338336</v>
+      </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
@@ -51794,6 +54646,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M951" t="n">
+        <v>29.41199319802529</v>
+      </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
@@ -51848,6 +54703,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M952" t="n">
+        <v>29.99406758984377</v>
+      </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
@@ -51902,6 +54760,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M953" t="n">
+        <v>29.99145439182265</v>
+      </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
@@ -51956,6 +54817,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M954" t="n">
+        <v>29.64727677719138</v>
+      </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
@@ -52010,6 +54874,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M955" t="n">
+        <v>29.66723135242543</v>
+      </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
@@ -52061,8 +54928,11 @@
       </c>
       <c r="L956" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M956" t="n">
+        <v>20.6539402497125</v>
       </c>
     </row>
     <row r="957">
@@ -52115,8 +54985,11 @@
       </c>
       <c r="L957" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M957" t="n">
+        <v>1.616261800451238</v>
       </c>
     </row>
     <row r="958">
@@ -52172,6 +55045,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M958" t="n">
+        <v>24.13828742439204</v>
+      </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
@@ -52225,6 +55101,9 @@
         <is>
           <t>Yet-To-Visit</t>
         </is>
+      </c>
+      <c r="M959" t="n">
+        <v>16.34083131981854</v>
       </c>
     </row>
   </sheetData>
